--- a/web/temp/dish.xlsx
+++ b/web/temp/dish.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Борщ" sheetId="1" r:id="rId4"/>
-    <sheet name="Плов" sheetId="2" r:id="rId5"/>
+    <sheet name="Сырники с банановой сметаной" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -16,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
-  <si>
-    <t>Борщ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+  <si>
+    <t>Сырники с банановой сметаной</t>
   </si>
   <si>
     <t>Наименование сырья, пищевых</t>
@@ -54,19 +53,40 @@
     <t>на 100г готового продукта</t>
   </si>
   <si>
-    <t>Капуста</t>
+    <t>мука рисовая</t>
   </si>
   <si>
     <t>Технология приготовления:</t>
   </si>
   <si>
-    <t>Картофель</t>
-  </si>
-  <si>
-    <t>Чтобы улучшить блюдо, можно добавить чеснок, лавровый лист, красный острый и черный перец, петрушку, укроп, болгарский перец, жарить зажарку на свином жире, вместо томатной пасты использовать свежие помидоры и</t>
-  </si>
-  <si>
-    <t>Мясо</t>
+    <t>мука пшеничная в/с</t>
+  </si>
+  <si>
+    <t>Засыпать творог, яйцо в миску, пробить погружным блендером до однородности (чтобы не было комочков творога). Добавить сахар, ванильный сахар, муку рисовую и замешать. Накатать в шары весом 55гр (3шт на порцию), обваливая в пшеничной муке, затем придать форму шайбы. Обжарить на масле с двух сторон до колера, довести до готовности в пароконвектомате 6 мин при температуре +195С°.
+Пробить блендером сметану с бананом, перелить в соусник.
+Оформление:
+ Выложить сырники в малый квадратный бокс. Рядом в бокс поставить соусник.</t>
+  </si>
+  <si>
+    <t>яйцо куриное</t>
+  </si>
+  <si>
+    <t>сахар ванильный</t>
+  </si>
+  <si>
+    <t>творог 5%</t>
+  </si>
+  <si>
+    <t>сахар тростниковый</t>
+  </si>
+  <si>
+    <t>масло кокосовое</t>
+  </si>
+  <si>
+    <t>сметана 15%</t>
+  </si>
+  <si>
+    <t>банан</t>
   </si>
   <si>
     <t>ВЫХОД на 1 порцию</t>
@@ -93,13 +113,10 @@
     <t>Информация о пищевой ценности на 1 порцию</t>
   </si>
   <si>
-    <t>Чтобы улучшить блюдо, можно добавить чеснок, лавровый лист, красный острый и черный перец, петрушку, укроп, болгарский перец, жарить зажарку на свином жире, вместо томатной пасты использовать свежие помидоры и т.д.</t>
+    <t>Хранить в холодильнике при температуре +5С° не более 36ч.</t>
   </si>
   <si>
     <t xml:space="preserve">% содержания </t>
-  </si>
-  <si>
-    <t>Плов</t>
   </si>
 </sst>
 </file>
@@ -479,292 +496,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="true" style="0"/>
-    <col min="2" max="2" width="25" customWidth="true" style="0"/>
-    <col min="3" max="3" width="25" customWidth="true" style="0"/>
-    <col min="4" max="4" width="25" customWidth="true" style="0"/>
-    <col min="5" max="5" width="25" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10" customWidth="true" style="0"/>
-    <col min="10" max="10" width="50" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="30">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="30">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="30">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="30">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3">
-        <v>250</v>
-      </c>
-      <c r="C4" s="3">
-        <v>200</v>
-      </c>
-      <c r="D4" s="3">
-        <v>180</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F4" s="3">
-        <v>250</v>
-      </c>
-      <c r="G4" s="3">
-        <v>200</v>
-      </c>
-      <c r="H4" s="3">
-        <v>180</v>
-      </c>
-      <c r="I4" s="3">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="30">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
-        <v>200</v>
-      </c>
-      <c r="C5" s="3">
-        <v>180</v>
-      </c>
-      <c r="D5" s="3">
-        <v>150</v>
-      </c>
-      <c r="E5" s="3">
-        <v>900</v>
-      </c>
-      <c r="F5" s="3">
-        <v>200</v>
-      </c>
-      <c r="G5" s="3">
-        <v>180</v>
-      </c>
-      <c r="H5" s="3">
-        <v>50</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" customHeight="1" ht="30">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3">
-        <v>500</v>
-      </c>
-      <c r="C6" s="3">
-        <v>500</v>
-      </c>
-      <c r="D6" s="3">
-        <v>350</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F6" s="3">
-        <v>90</v>
-      </c>
-      <c r="G6" s="3">
-        <v>80</v>
-      </c>
-      <c r="H6" s="3">
-        <v>25</v>
-      </c>
-      <c r="I6" s="3">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="30">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <v>680</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" customHeight="1" ht="30">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="30">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1310</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1124</v>
-      </c>
-      <c r="D9" s="3">
-        <v>575</v>
-      </c>
-      <c r="E9" s="3">
-        <v>46.8</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="30">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J9:J10"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A4" sqref="A4"/>
@@ -786,7 +518,7 @@
   <sheetData>
     <row r="1" spans="1:10" customHeight="1" ht="30">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -849,29 +581,19 @@
         <v>12</v>
       </c>
       <c r="B4" s="3">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
-        <v>180</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F4" s="3">
-        <v>250</v>
-      </c>
-      <c r="G4" s="3">
-        <v>200</v>
-      </c>
-      <c r="H4" s="3">
-        <v>180</v>
-      </c>
-      <c r="I4" s="3">
         <v>10</v>
       </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
@@ -881,29 +603,19 @@
         <v>14</v>
       </c>
       <c r="B5" s="3">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>150</v>
-      </c>
-      <c r="E5" s="3">
-        <v>900</v>
-      </c>
-      <c r="F5" s="3">
-        <v>200</v>
-      </c>
-      <c r="G5" s="3">
-        <v>180</v>
-      </c>
-      <c r="H5" s="3">
-        <v>50</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
         <v>15</v>
       </c>
@@ -913,39 +625,33 @@
         <v>16</v>
       </c>
       <c r="B6" s="3">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3">
-        <v>500</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3">
-        <v>350</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F6" s="3">
-        <v>90</v>
-      </c>
-      <c r="G6" s="3">
-        <v>80</v>
-      </c>
-      <c r="H6" s="3">
-        <v>25</v>
-      </c>
-      <c r="I6" s="3">
-        <v>5</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" customHeight="1" ht="30">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
       <c r="D7" s="3">
-        <v>680</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -958,63 +664,179 @@
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="B8" s="3">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3">
+        <v>120</v>
+      </c>
+      <c r="D8" s="3">
+        <v>108</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" customHeight="1" ht="30">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3">
-        <v>1310</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3">
-        <v>1124</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3">
-        <v>575</v>
-      </c>
-      <c r="E9" s="3">
-        <v>46.8</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" customHeight="1" ht="30">
       <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" customHeight="1" ht="30">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" customHeight="1" ht="30">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" customHeight="1" ht="30">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3">
+        <v>174</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" customHeight="1" ht="30">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" customHeight="1" ht="30">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3">
+        <v>100</v>
+      </c>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" customHeight="1" ht="30">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -1027,8 +849,8 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J5:J13"/>
+    <mergeCell ref="J15:J16"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/temp/dish.xlsx
+++ b/web/temp/dish.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Сырники с банановой сметаной" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
@@ -144,7 +144,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,11 +155,8 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf1ee3b"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -185,16 +182,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -492,14 +489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A1" sqref="A1:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -517,77 +514,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" customHeight="1" ht="30">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" customHeight="1" ht="30">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="30">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" customHeight="1" ht="30">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C4" s="3">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="D4" s="3">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -603,13 +600,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C5" s="3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -625,13 +622,13 @@
         <v>16</v>
       </c>
       <c r="B6" s="3">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C6" s="3">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="D6" s="3">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -645,13 +642,13 @@
         <v>17</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -665,13 +662,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="3">
-        <v>120</v>
+        <v>120.0</v>
       </c>
       <c r="C8" s="3">
-        <v>120</v>
+        <v>120.0</v>
       </c>
       <c r="D8" s="3">
-        <v>108</v>
+        <v>108.0</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -685,13 +682,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C9" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="D9" s="3">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -705,13 +702,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C10" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -725,13 +722,13 @@
         <v>21</v>
       </c>
       <c r="B11" s="3">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C11" s="3">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="D11" s="3">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -745,13 +742,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="3">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C12" s="3">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D12" s="3">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -767,7 +764,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3">
-        <v>174</v>
+        <v>174.0</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
